--- a/biology/Histoire de la zoologie et de la botanique/Guy_Chester_Shortridge/Guy_Chester_Shortridge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Guy_Chester_Shortridge/Guy_Chester_Shortridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Chester Shortridge (1880-1949) est un zoologiste anglais. Né le 21 juin 1880 à Honiton, il s'intéresse très tôt à l'histoire naturelle. Il sert dans le South African Constabulary durant la guerre des Boers. À l'origine formé pour être géologue, il travaille comme taxidermiste pour le South African Museum de 1902 à 1903[1]. Il part en Australie puis à Java, où il collecte de nombreux spécimens pour le musée d'histoire naturelle de Londres et pour le muséum américain d'histoire naturelle[2]. Il a été directeur de l'Amathole museum de 1922[3] (ou 1921[2]) à 1949 où il collecta de nombreux spécimens de mammifères qui font à présent partie de la collection Shortridge du musée[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Chester Shortridge (1880-1949) est un zoologiste anglais. Né le 21 juin 1880 à Honiton, il s'intéresse très tôt à l'histoire naturelle. Il sert dans le South African Constabulary durant la guerre des Boers. À l'origine formé pour être géologue, il travaille comme taxidermiste pour le South African Museum de 1902 à 1903. Il part en Australie puis à Java, où il collecte de nombreux spécimens pour le musée d'histoire naturelle de Londres et pour le muséum américain d'histoire naturelle. Il a été directeur de l'Amathole museum de 1922 (ou 1921) à 1949 où il collecta de nombreux spécimens de mammifères qui font à présent partie de la collection Shortridge du musée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) G. C Shortridge, The mammals of South West Africa. A biological account of the forms occurring in that region, London, William Heinemann Ltd, 1934
 (en) G. C Shortridge, « Field notes on the first and second expeditions of the Cape Museum's Mammal Survey of the Cape Province; and descriptions of some new subgenera and subspecies », Annals of the South African Museum, vol. 36, no 27,‎ 1942
